--- a/GameDesign/ExcelData/Area_Data.xlsx
+++ b/GameDesign/ExcelData/Area_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAC2A75-6F0C-4FF3-B284-972CC281EA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DD60E2-8176-4999-AF47-E47DC31DF219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1896" yWindow="5448" windowWidth="13752" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>long</t>
   </si>
@@ -87,6 +87,10 @@
   </si>
   <si>
     <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpawnArea</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -544,10 +548,10 @@
         <v>1004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -564,10 +568,10 @@
         <v>1005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>

--- a/GameDesign/ExcelData/Area_Data.xlsx
+++ b/GameDesign/ExcelData/Area_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DD60E2-8176-4999-AF47-E47DC31DF219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61074B86-E78A-47A1-B141-EC3C7C74B00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>long</t>
   </si>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1,2,3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>descrption</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,6 +83,34 @@
   </si>
   <si>
     <t>SpawnArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpawnArea_MainLeft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpawnArea_MainRight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpawnArea_SupportLeft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpawnArea_SupportRight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3,4,5,5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,22 +448,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.3984375" customWidth="1"/>
     <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="6" max="6" width="32.77734375" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="32.796875" customWidth="1"/>
+    <col min="7" max="7" width="16.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -471,19 +491,19 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -503,7 +523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -523,7 +543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
@@ -543,32 +563,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
@@ -580,7 +600,47 @@
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/Area_Data.xlsx
+++ b/GameDesign/ExcelData/Area_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61074B86-E78A-47A1-B141-EC3C7C74B00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72A6976-A4E0-486F-865D-4A6077DA5C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,15 +102,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[3,4,5,5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[6]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[8,9,8,9]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,19 +451,19 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.3984375" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
     <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="6" max="6" width="32.796875" customWidth="1"/>
-    <col min="7" max="7" width="16.1328125" customWidth="1"/>
+    <col min="6" max="6" width="32.75" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -503,7 +503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -523,7 +523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -543,7 +543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
@@ -563,7 +563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
@@ -580,10 +580,10 @@
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
@@ -600,10 +600,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
@@ -620,10 +620,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
@@ -640,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/Area_Data.xlsx
+++ b/GameDesign/ExcelData/Area_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72A6976-A4E0-486F-865D-4A6077DA5C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D386A2D-56DE-4E4B-8097-C054BB786182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,7 +110,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[8,9,8,9]</t>
+    <t>[3,10,4,5]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,7 +451,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/GameDesign/ExcelData/Area_Data.xlsx
+++ b/GameDesign/ExcelData/Area_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D386A2D-56DE-4E4B-8097-C054BB786182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05032C2E-7FC1-4D79-B7AD-39D0CEF507D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8490" yWindow="6660" windowWidth="18900" windowHeight="8100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>long</t>
   </si>
@@ -111,6 +111,14 @@
   </si>
   <si>
     <t>[3,10,4,5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial2.0_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[11]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,7 +142,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +152,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -160,12 +174,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -448,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A10" sqref="A10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -643,6 +660,26 @@
         <v>21</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1101</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameDesign/ExcelData/Area_Data.xlsx
+++ b/GameDesign/ExcelData/Area_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NamelessHill\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05032C2E-7FC1-4D79-B7AD-39D0CEF507D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23AEA1A-723E-41BD-A378-88C8A9B4C679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8490" yWindow="6660" windowWidth="18900" windowHeight="8100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>long</t>
   </si>
@@ -119,6 +119,14 @@
   </si>
   <si>
     <t>[11]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[12,13,14]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,22 +473,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:F10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
     <col min="5" max="5" width="37" customWidth="1"/>
-    <col min="6" max="6" width="32.75" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="32.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,7 +508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -520,7 +528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -540,7 +548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -560,7 +568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
@@ -580,7 +588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
@@ -600,7 +608,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
@@ -620,7 +628,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
@@ -640,7 +648,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
@@ -660,7 +668,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1101</v>
       </c>
@@ -674,10 +682,30 @@
         <v>3</v>
       </c>
       <c r="E10" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>1102</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/Area_Data.xlsx
+++ b/GameDesign/ExcelData/Area_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23AEA1A-723E-41BD-A378-88C8A9B4C679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B68895-431D-4C10-AA56-32ECA032DF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>long</t>
   </si>
@@ -127,6 +127,18 @@
   </si>
   <si>
     <t>Level_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[15]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[16]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[17]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D20" sqref="D20:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -689,23 +701,83 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>1102</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="3">
         <v>3</v>
       </c>
-      <c r="E11" s="1">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>1103</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>1104</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>1105</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/Area_Data.xlsx
+++ b/GameDesign/ExcelData/Area_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B68895-431D-4C10-AA56-32ECA032DF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536C8304-A44A-4145-96A5-B1B64C37BECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,7 +488,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:D21"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/Area_Data.xlsx
+++ b/GameDesign/ExcelData/Area_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536C8304-A44A-4145-96A5-B1B64C37BECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDDBE7B-6FB2-4229-91CB-320E35AABFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,43 +102,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[7]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3,10,4,5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tutorial2.0_02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[11]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[12,13,14]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Level_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[15]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[16]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[17]</t>
+    <t>[-1,3,10,4,5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-1,6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-1,7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-1,11]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-1,15]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-1,16]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-1,17]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[140,12,13,14]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +488,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -677,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -688,7 +688,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3">
         <v>3</v>
@@ -697,7 +697,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -708,7 +708,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D11" s="3">
         <v>3</v>
@@ -717,7 +717,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -728,16 +728,16 @@
         <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" s="3">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -748,7 +748,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
@@ -757,7 +757,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -768,7 +768,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D14" s="3">
         <v>3</v>
@@ -777,7 +777,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/Area_Data.xlsx
+++ b/GameDesign/ExcelData/Area_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDDBE7B-6FB2-4229-91CB-320E35AABFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5BFC10-6B3F-4D82-9B4C-9E74C4DB4AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,7 +488,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/Area_Data.xlsx
+++ b/GameDesign/ExcelData/Area_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-Temp\NamelessHill\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5BFC10-6B3F-4D82-9B4C-9E74C4DB4AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784B2929-5F8C-49EB-B53C-1FABBA35277E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>WUYUE</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{751A7687-C78C-475B-AC93-1E8AE22E4F64}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>WUYUE:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+请注明关卡+出兵区域编号+所属wave</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>long</t>
   </si>
@@ -102,14 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tutorial2.0_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[-1,3,10,4,5]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,6 +167,93 @@
   </si>
   <si>
     <t>[140,12,13,14]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpawnArea</t>
+  </si>
+  <si>
+    <t>SpawnArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_01_A17_wave00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_01_A70_wave01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_01_A78_wave02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[922,121]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[923,122]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[931,131]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[941,141]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[932,132]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[933,133]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[942,142]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[943,143]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_02_A172_wave01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_02_A166_wave02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_03_A156_wave01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_03_A122_wave02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_03_A176_wave03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_04_A79_wave01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_04_A102_wave02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_04_A78_wave03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,7 +261,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,8 +276,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,6 +311,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -194,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -204,6 +346,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,11 +635,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -617,7 +768,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -637,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -657,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -677,7 +828,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -688,7 +839,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3">
         <v>3</v>
@@ -697,7 +848,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -708,7 +859,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D11" s="3">
         <v>3</v>
@@ -717,7 +868,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -728,7 +879,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D12" s="3">
         <v>3</v>
@@ -737,7 +888,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -748,7 +899,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
@@ -757,7 +908,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -768,7 +919,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D14" s="3">
         <v>3</v>
@@ -777,12 +928,173 @@
         <v>2</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>1201</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>1202</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>1301</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="5">
+        <v>3</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>1302</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="5">
+        <v>3</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>1303</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="5">
+        <v>3</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>1401</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="6">
+        <v>3</v>
+      </c>
+      <c r="E20" s="6">
+        <v>2</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>1402</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="6">
+        <v>3</v>
+      </c>
+      <c r="E21" s="6">
+        <v>2</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>1403</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="6">
+        <v>3</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/GameDesign/ExcelData/Area_Data.xlsx
+++ b/GameDesign/ExcelData/Area_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784B2929-5F8C-49EB-B53C-1FABBA35277E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E123979-BD55-45A8-BB1C-96E5CF376C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,12 +56,39 @@
         </r>
       </text>
     </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{755C0D7E-0047-456D-B0D3-6C05ACEF62C8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>WUYUE:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1=直接生成第一组pawngroup
+2=直接生成第一组pawngroup，第一组敌兵全灭生成下一组</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t>long</t>
   </si>
@@ -193,67 +220,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[922,121]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[923,122]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[931,131]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[941,141]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[932,132]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[933,133]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[942,142]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[943,143]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level_02_A172_wave01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level_02_A166_wave02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level_03_A156_wave01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level_03_A122_wave02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level_03_A176_wave03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level_04_A79_wave01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level_04_A102_wave02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level_04_A78_wave03</t>
+    <t>Level_02_A172</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_02_A166</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_03_A156</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_03_A122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_03_A176</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_04_A102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[924,122,124]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[933,131]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[934,132,134]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[935,133,135]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[943,141]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[944,142,144]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[945,143,145]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpawnArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_02_A164</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[923,121]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[925,123,125]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_04_A77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_04_A131</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,11 +675,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -939,7 +976,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D15" s="4">
         <v>3</v>
@@ -948,7 +985,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -959,7 +996,7 @@
         <v>30</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D16" s="4">
         <v>3</v>
@@ -968,38 +1005,38 @@
         <v>2</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>1301</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="5">
-        <v>3</v>
-      </c>
-      <c r="E17" s="5">
-        <v>2</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>36</v>
+      <c r="A17" s="4">
+        <v>1203</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D18" s="5">
         <v>3</v>
@@ -1008,18 +1045,18 @@
         <v>2</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D19" s="5">
         <v>3</v>
@@ -1028,38 +1065,38 @@
         <v>2</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>1401</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="5">
+        <v>1303</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="6">
-        <v>3</v>
-      </c>
-      <c r="E20" s="6">
-        <v>2</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>37</v>
+      <c r="C20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="5">
+        <v>3</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D21" s="6">
         <v>3</v>
@@ -1068,18 +1105,18 @@
         <v>2</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D22" s="6">
         <v>3</v>
@@ -1088,7 +1125,27 @@
         <v>2</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>1403</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="6">
+        <v>3</v>
+      </c>
+      <c r="E23" s="6">
+        <v>2</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/Area_Data.xlsx
+++ b/GameDesign/ExcelData/Area_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E123979-BD55-45A8-BB1C-96E5CF376C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7152CC-A9FE-4D0C-8F0E-AF5ED5509780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>long</t>
   </si>
@@ -276,10 +276,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Level_02_A164</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[923,121]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,6 +289,18 @@
   </si>
   <si>
     <t>Level_04_A131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_02_A165</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[923,126]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level_02_A163</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -675,9 +683,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -985,7 +995,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1016,7 +1026,7 @@
         <v>47</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D17" s="4">
         <v>3</v>
@@ -1025,38 +1035,38 @@
         <v>2</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>1301</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="5">
-        <v>3</v>
-      </c>
-      <c r="E18" s="5">
-        <v>2</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>41</v>
+      <c r="A18" s="4">
+        <v>1204</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="4">
+        <v>3</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="5">
         <v>3</v>
@@ -1065,58 +1075,58 @@
         <v>2</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="5">
+        <v>3</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>1303</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="5">
-        <v>3</v>
-      </c>
-      <c r="E20" s="5">
-        <v>2</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="D21" s="5">
+        <v>3</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>1401</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="6">
-        <v>3</v>
-      </c>
-      <c r="E21" s="6">
-        <v>2</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D22" s="6">
         <v>3</v>
@@ -1125,18 +1135,18 @@
         <v>2</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D23" s="6">
         <v>3</v>
@@ -1145,6 +1155,26 @@
         <v>2</v>
       </c>
       <c r="F23" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>1403</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="6">
+        <v>3</v>
+      </c>
+      <c r="E24" s="6">
+        <v>2</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>46</v>
       </c>
     </row>
